--- a/doc/regression-test/suites/02-admin-role.xlsx
+++ b/doc/regression-test/suites/02-admin-role.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Dev\Propel\propel\doc\regression-test\suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9CAA31-10D7-47A9-9288-9C770CF54236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC1BB6C-594A-42CA-A731-63E1514154E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="744" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="598">
   <si>
     <t>Description</t>
   </si>
@@ -2774,6 +2774,75 @@
  - Clicking in the "Run" button at the left of the Workflow name must cause the workflow to start running.
  -Clicking in the link with the number of executions at the bottom of the card must redirect you to the History page.</t>
   </si>
+  <si>
+    <t>mongsh</t>
+  </si>
+  <si>
+    <r>
+      <t>Check in the Database if your user account exists and is not locked. Otherwise proceed to create it as indicated in the section "Create my User account" of the "01-user-login" test suite. 
+In the case the user is locked or the role is "User" you can change the document in the "UserAccount" database collection by setting a null value for the property "lockedSince", and ensure the property "role" has the value "Administrator". If you don't count with a tool like Compass or Studio 3T, just open a OS console and type       mongosh once in the Mongo Shell enter the following:
+    use admin
+    db.auth("DBA", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HERE the DB admin password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>")
+    use Propel
+    db.UserAccounts.updateOne({name: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HERE your account name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"}, {$set:{ lockedSince:null, role: "Administrator"}})
+You can verify the changes by running:
+    db.UserAccounts.find({name: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HERE your account name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"})</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2782,7 +2851,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2863,6 +2932,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -3311,29 +3386,6 @@
   <dxfs count="119">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -3623,6 +3675,29 @@
           <bgColor rgb="FFF1826F"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -7451,8 +7526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1510635-E20C-4AD1-9756-3BB17945F573}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7619,8 +7694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59558529-F109-4122-99C6-22F7311C314B}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7657,18 +7732,20 @@
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>596</v>
+      </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="232" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>65</v>
+        <v>597</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="21" t="s">
@@ -9909,32 +9986,30 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:E19 A21:E160 A20:B20 D20:E20">
+  <conditionalFormatting sqref="A11:E19 A20:B20 D20:E20 A21:E160">
     <cfRule type="expression" dxfId="29" priority="10">
       <formula>AND($B11&lt;&gt;$B10, $B11&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:E19 B21:E160 B20 D20:E20">
+  <conditionalFormatting sqref="B11:E19 B20 D20:E20 B21:E160">
     <cfRule type="expression" dxfId="28" priority="9">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F160">
-    <cfRule type="expression" dxfId="27" priority="5">
-      <formula>$F11="Fail"</formula>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="27" priority="1">
+      <formula>AND($B20&lt;&gt;$B19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
-      <formula>$F11="Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND($B20&lt;&gt;$B19, $B20&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($B20&lt;&gt;$B19)</formula>
+  <conditionalFormatting sqref="F11:F160">
+    <cfRule type="expression" dxfId="25" priority="5">
+      <formula>$F11="Fail"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="6">
+      <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -9954,8 +10029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03039438-4AD9-4D40-931F-AC03D1866474}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12141,20 +12216,20 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:E160">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>AND($B11&lt;&gt;$B10, $B11&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E160">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F160">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12175,8 +12250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322CA305-6D4C-4009-9AC6-49A9CFC678F3}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14509,20 +14584,20 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:E161">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>AND($B12&lt;&gt;$B11, $B12&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E161">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>AND($B12&lt;&gt;$B11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F161">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$F12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$F12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14543,8 +14618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A349F1FE-560E-44B0-80FF-4A6FFBE05FDE}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16754,20 +16829,20 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:E160">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>AND($B11&lt;&gt;$B10, $B11&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E160">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F160">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16788,8 +16863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE315560-F0B6-4878-B759-6F1FB6EB6404}">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16845,7 +16920,7 @@
       </c>
       <c r="E5" s="11">
         <f>COUNTIFS(SampleTestCase128[Area],"&lt;&gt;"&amp;"",SampleTestCase128[Status], "Not Executed")</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F5" s="12">
         <f>IF(E5&gt;0, E5/SUM(E$5:E$7), "--")</f>
@@ -17737,7 +17812,9 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B53" s="17"/>
+      <c r="B53" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C53" s="7" t="s">
         <v>319</v>
       </c>
@@ -17754,7 +17831,9 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B54" s="17"/>
+      <c r="B54" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C54" s="7" t="s">
         <v>315</v>
       </c>
@@ -17771,7 +17850,9 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B55" s="17"/>
+      <c r="B55" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C55" s="7" t="s">
         <v>318</v>
       </c>
@@ -17788,7 +17869,9 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B56" s="17"/>
+      <c r="B56" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C56" s="7" t="s">
         <v>320</v>
       </c>
@@ -17805,7 +17888,9 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B57" s="17"/>
+      <c r="B57" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C57" s="7" t="s">
         <v>323</v>
       </c>
@@ -17822,7 +17907,9 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B58" s="17"/>
+      <c r="B58" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C58" s="7" t="s">
         <v>324</v>
       </c>
@@ -17839,7 +17926,9 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B59" s="17"/>
+      <c r="B59" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C59" s="7" t="s">
         <v>326</v>
       </c>
@@ -17856,7 +17945,9 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B60" s="17"/>
+      <c r="B60" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C60" s="7" t="s">
         <v>330</v>
       </c>
@@ -17873,7 +17964,9 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B61" s="17"/>
+      <c r="B61" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C61" s="7" t="s">
         <v>332</v>
       </c>
@@ -17890,7 +17983,9 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B62" s="17"/>
+      <c r="B62" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C62" s="7" t="s">
         <v>334</v>
       </c>
@@ -17907,7 +18002,9 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="B63" s="17"/>
+      <c r="B63" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C63" s="7" t="s">
         <v>336</v>
       </c>
@@ -17924,7 +18021,9 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="B64" s="17"/>
+      <c r="B64" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C64" s="7" t="s">
         <v>339</v>
       </c>
@@ -17941,7 +18040,9 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="B65" s="17"/>
+      <c r="B65" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C65" s="7" t="s">
         <v>340</v>
       </c>
@@ -17958,7 +18059,9 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B66" s="17"/>
+      <c r="B66" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C66" s="7" t="s">
         <v>342</v>
       </c>
@@ -17975,7 +18078,9 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B67" s="17"/>
+      <c r="B67" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="C67" s="7" t="s">
         <v>344</v>
       </c>
@@ -19237,20 +19342,20 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="A13:E162">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>AND($B13&lt;&gt;$B12, $B13&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E162">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>AND($B13&lt;&gt;$B12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F162">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$F13="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$F13="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19271,8 +19376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2632F0E8-24F5-4387-B349-067B686A35FA}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21756,20 +21861,20 @@
     <mergeCell ref="E9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:E161">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>AND($B12&lt;&gt;$B11, $B12&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E161">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND($B12&lt;&gt;$B11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F161">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$F12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$F12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21790,8 +21895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894ECE6F-024E-4522-AC5D-2F7DB493AFA6}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24389,20 +24494,20 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:E160">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND($B11&lt;&gt;$B10, $B11&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E160">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F160">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
